--- a/NformTester/NformTester/keywordscripts/TST551_CopyDataOfAGraph.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST551_CopyDataOfAGraph.xlsx
@@ -1278,7 +1278,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7798" uniqueCount="884">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7790" uniqueCount="881">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3794,140 +3794,124 @@
     <t>Nform Server</t>
   </si>
   <si>
+    <t>Database Type</t>
+  </si>
+  <si>
+    <t>Database Version</t>
+  </si>
+  <si>
+    <t>Managed device limit</t>
+  </si>
+  <si>
+    <t>Advanced Communications</t>
+  </si>
+  <si>
+    <t>Advanced Notification</t>
+  </si>
+  <si>
+    <t>Registration</t>
+  </si>
+  <si>
+    <t>Windows</t>
+  </si>
+  <si>
+    <t>.NET Framework</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>;Login.</t>
+  </si>
+  <si>
+    <t>Sashimi</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Administrator"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"admin"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"localhost"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Version</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create Date</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Update Date</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>;Add one device.</t>
+  </si>
+  <si>
+    <t>Result</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>SingleManual</t>
+  </si>
+  <si>
+    <t>10.146.88.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ABC GXT UPS"</t>
+  </si>
+  <si>
+    <t>"Description for GXT"</t>
+  </si>
+  <si>
+    <t>"Liebert GXT UPS/WebCard"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"SNMP"</t>
+  </si>
+  <si>
     <t>T</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Database Type</t>
-  </si>
-  <si>
-    <t>Database Version</t>
-  </si>
-  <si>
-    <t>Managed device limit</t>
-  </si>
-  <si>
-    <t>Advanced Communications</t>
-  </si>
-  <si>
-    <t>Advanced Notification</t>
-  </si>
-  <si>
-    <t>Registration</t>
-  </si>
-  <si>
-    <t>Windows</t>
-  </si>
-  <si>
-    <t>.NET Framework</t>
-  </si>
-  <si>
-    <t>FormAdd_Device_Results</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>;Clear operation.</t>
   </si>
   <si>
     <t>FormManaged_Devices</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Close</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>;Login.</t>
-  </si>
-  <si>
-    <t>Sashimi</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Administrator"</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>"admin"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"localhost"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Version</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Create Date</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Update Date</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>;Add one device.</t>
-  </si>
-  <si>
-    <t>Result</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>SingleManual</t>
-  </si>
-  <si>
-    <t>10.146.88.10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ABC GXT UPS"</t>
-  </si>
-  <si>
-    <t>"Description for GXT"</t>
-  </si>
-  <si>
-    <t>"Liebert GXT UPS/WebCard"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"SNMP"</t>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;Clear operation.</t>
-  </si>
-  <si>
-    <t>FormManaged_Devices</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>"{CONTROL down}{Akey}{CONTROL up}"</t>
   </si>
   <si>
@@ -3972,6 +3956,10 @@
   </si>
   <si>
     <t xml:space="preserve">;Verify that:A user will have the ability to copy the data used in the graph to the Windows clipboard. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4142,7 +4130,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4156,9 +4144,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4495,9 +4480,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N39"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -4565,7 +4552,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -4576,20 +4563,20 @@
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
-      <c r="N2" s="15"/>
+      <c r="N2" s="14"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2" t="s">
         <v>826</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>850</v>
+      <c r="D3" s="6" t="s">
+        <v>846</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>0</v>
@@ -4599,31 +4586,31 @@
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
-      <c r="N3" s="15"/>
+      <c r="N3" s="14"/>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2" t="s">
-        <v>855</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>856</v>
+        <v>851</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>852</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>857</v>
+      <c r="D4" s="6" t="s">
+        <v>853</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>18</v>
@@ -4640,20 +4627,20 @@
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
-      <c r="N4" s="15"/>
+      <c r="N4" s="14"/>
     </row>
     <row r="5" spans="1:14" ht="15">
       <c r="A5" s="2" t="s">
-        <v>858</v>
-      </c>
-      <c r="B5" s="9">
+        <v>854</v>
+      </c>
+      <c r="B5" s="8">
         <v>41141</v>
       </c>
       <c r="C5" s="4">
         <v>4</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -4664,20 +4651,20 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-      <c r="N5" s="15"/>
+      <c r="N5" s="14"/>
     </row>
     <row r="6" spans="1:14" ht="15">
       <c r="A6" s="2" t="s">
-        <v>859</v>
-      </c>
-      <c r="B6" s="9">
+        <v>855</v>
+      </c>
+      <c r="B6" s="8">
         <v>41142</v>
       </c>
       <c r="C6" s="4">
         <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -4688,44 +4675,44 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-      <c r="N6" s="15"/>
+      <c r="N6" s="14"/>
     </row>
     <row r="7" spans="1:14" ht="15">
       <c r="A7" s="2" t="s">
         <v>828</v>
       </c>
       <c r="B7" s="3">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C7" s="4">
         <v>6</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>860</v>
-      </c>
-      <c r="E7" s="10"/>
+        <v>856</v>
+      </c>
+      <c r="E7" s="9"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="10"/>
+      <c r="H7" s="9"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
-      <c r="N7" s="15"/>
+      <c r="N7" s="14"/>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="C8" s="4">
         <v>7</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>862</v>
+      <c r="D8" s="6" t="s">
+        <v>858</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>632</v>
@@ -4735,37 +4722,37 @@
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4" t="s">
+        <v>859</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>860</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>861</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>862</v>
+      </c>
+      <c r="L8" s="4" t="s">
         <v>863</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="M8" s="4" t="s">
         <v>864</v>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>865</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>866</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>867</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>868</v>
-      </c>
-      <c r="N8" s="15"/>
+      <c r="N8" s="14"/>
     </row>
     <row r="9" spans="1:14" ht="15">
       <c r="A9" s="2" t="s">
         <v>829</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>830</v>
       </c>
       <c r="C9" s="4">
         <v>8</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -4776,18 +4763,18 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
-      <c r="N9" s="15"/>
+      <c r="N9" s="14"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="4">
         <v>9</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>847</v>
-      </c>
-      <c r="E10" s="10" t="s">
+      <c r="D10" s="6" t="s">
+        <v>843</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>19</v>
       </c>
       <c r="F10" s="4" t="s">
@@ -4796,26 +4783,26 @@
       <c r="G10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
-      <c r="N10" s="15"/>
+      <c r="N10" s="14"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="2" t="s">
         <v>831</v>
       </c>
-      <c r="B11" s="14"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="4">
         <v>10</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>847</v>
-      </c>
-      <c r="E11" s="10" t="s">
+      <c r="D11" s="6" t="s">
+        <v>843</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>19</v>
       </c>
       <c r="F11" s="4" t="s">
@@ -4824,24 +4811,24 @@
       <c r="G11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="10"/>
+      <c r="H11" s="9"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
-      <c r="N11" s="15"/>
+      <c r="N11" s="14"/>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="2" t="s">
         <v>832</v>
       </c>
-      <c r="B12" s="14"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="4">
         <v>11</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>847</v>
+      <c r="D12" s="6" t="s">
+        <v>843</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>632</v>
@@ -4853,25 +4840,25 @@
         <v>56</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
-      <c r="N12" s="15"/>
+      <c r="N12" s="14"/>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="2" t="s">
         <v>833</v>
       </c>
-      <c r="B13" s="14"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="4">
         <v>12</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>847</v>
+      <c r="D13" s="6" t="s">
+        <v>843</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>632</v>
@@ -4882,24 +4869,24 @@
       <c r="G13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H13" s="10"/>
+      <c r="H13" s="9"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
-      <c r="N13" s="15"/>
+      <c r="N13" s="14"/>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="2" t="s">
-        <v>835</v>
-      </c>
-      <c r="B14" s="14"/>
+        <v>834</v>
+      </c>
+      <c r="B14" s="13"/>
       <c r="C14" s="4">
         <v>13</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>847</v>
+      <c r="D14" s="6" t="s">
+        <v>843</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>571</v>
@@ -4910,26 +4897,26 @@
       <c r="G14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H14" s="10"/>
+      <c r="H14" s="9"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
-      <c r="N14" s="15"/>
+      <c r="N14" s="14"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="2" t="s">
-        <v>836</v>
-      </c>
-      <c r="B15" s="14"/>
+        <v>835</v>
+      </c>
+      <c r="B15" s="13"/>
       <c r="C15" s="4">
         <v>14</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>875</v>
-      </c>
-      <c r="E15" s="10" t="s">
+      <c r="D15" s="6" t="s">
+        <v>871</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>630</v>
       </c>
       <c r="F15" s="4" t="s">
@@ -4944,21 +4931,21 @@
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
-      <c r="N15" s="15"/>
+      <c r="N15" s="14"/>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="2" t="s">
-        <v>837</v>
-      </c>
-      <c r="B16" s="14"/>
+        <v>836</v>
+      </c>
+      <c r="B16" s="13"/>
       <c r="C16" s="4">
         <v>15</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>876</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>877</v>
+      <c r="D16" s="6" t="s">
+        <v>872</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>873</v>
       </c>
       <c r="F16" s="4">
         <v>2</v>
@@ -4970,20 +4957,20 @@
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
-      <c r="N16" s="15"/>
+      <c r="N16" s="14"/>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="2"/>
-      <c r="B17" s="14" t="s">
-        <v>838</v>
+      <c r="B17" s="13" t="s">
+        <v>837</v>
       </c>
       <c r="C17" s="4">
         <v>16</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>847</v>
-      </c>
-      <c r="E17" s="10" t="s">
+      <c r="D17" s="6" t="s">
+        <v>843</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>630</v>
       </c>
       <c r="F17" s="4" t="s">
@@ -4992,24 +4979,24 @@
       <c r="G17" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
-      <c r="N17" s="15"/>
+      <c r="N17" s="14"/>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="2"/>
-      <c r="B18" s="14" t="s">
-        <v>839</v>
+      <c r="B18" s="13" t="s">
+        <v>838</v>
       </c>
       <c r="C18" s="4">
         <v>17</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>847</v>
+      <c r="D18" s="6" t="s">
+        <v>843</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>571</v>
@@ -5020,26 +5007,26 @@
       <c r="G18" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
-      <c r="N18" s="15"/>
+      <c r="N18" s="14"/>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="2" t="s">
-        <v>840</v>
-      </c>
-      <c r="B19" s="14" t="s">
+        <v>839</v>
+      </c>
+      <c r="B19" s="13" t="s">
         <v>830</v>
       </c>
       <c r="C19" s="4">
         <v>18</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>847</v>
+      <c r="D19" s="6" t="s">
+        <v>843</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>632</v>
@@ -5050,24 +5037,24 @@
       <c r="G19" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
-      <c r="N19" s="15"/>
+      <c r="N19" s="14"/>
     </row>
     <row r="20" spans="1:14" ht="15">
       <c r="A20" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="B20" s="14"/>
+        <v>840</v>
+      </c>
+      <c r="B20" s="13"/>
       <c r="C20" s="4">
         <v>19</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -5078,20 +5065,20 @@
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
-      <c r="N20" s="15"/>
+      <c r="N20" s="14"/>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="2" t="s">
-        <v>842</v>
-      </c>
-      <c r="B21" s="14"/>
+        <v>841</v>
+      </c>
+      <c r="B21" s="13"/>
       <c r="C21" s="4">
         <v>20</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>847</v>
-      </c>
-      <c r="E21" s="10" t="s">
+      <c r="D21" s="6" t="s">
+        <v>843</v>
+      </c>
+      <c r="E21" s="9" t="s">
         <v>19</v>
       </c>
       <c r="F21" s="4" t="s">
@@ -5100,22 +5087,22 @@
       <c r="G21" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
-      <c r="N21" s="15"/>
+      <c r="N21" s="14"/>
     </row>
     <row r="22" spans="1:14">
       <c r="C22" s="4">
         <v>21</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>847</v>
-      </c>
-      <c r="E22" s="10" t="s">
+      <c r="D22" s="6" t="s">
+        <v>843</v>
+      </c>
+      <c r="E22" s="9" t="s">
         <v>19</v>
       </c>
       <c r="F22" s="4" t="s">
@@ -5124,26 +5111,26 @@
       <c r="G22" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H22" s="9">
         <v>2</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
-      <c r="N22" s="15"/>
+      <c r="N22" s="14"/>
     </row>
     <row r="23" spans="1:14">
       <c r="C23" s="4">
         <v>22</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>847</v>
-      </c>
-      <c r="E23" s="10" t="s">
+      <c r="D23" s="6" t="s">
+        <v>843</v>
+      </c>
+      <c r="E23" s="9" t="s">
         <v>19</v>
       </c>
       <c r="F23" s="4" t="s">
@@ -5152,40 +5139,40 @@
       <c r="G23" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H23" s="10"/>
+      <c r="H23" s="9"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
-      <c r="N23" s="15"/>
+      <c r="N23" s="14"/>
     </row>
     <row r="24" spans="1:14" ht="15">
       <c r="C24" s="4">
         <v>23</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>880</v>
-      </c>
-      <c r="E24" s="10"/>
+        <v>876</v>
+      </c>
+      <c r="E24" s="9"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
-      <c r="N24" s="15"/>
+      <c r="N24" s="14"/>
     </row>
     <row r="25" spans="1:14">
       <c r="C25" s="4">
         <v>24</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>847</v>
-      </c>
-      <c r="E25" s="10" t="s">
+      <c r="D25" s="6" t="s">
+        <v>843</v>
+      </c>
+      <c r="E25" s="9" t="s">
         <v>19</v>
       </c>
       <c r="F25" s="4" t="s">
@@ -5194,22 +5181,22 @@
       <c r="G25" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
-      <c r="N25" s="15"/>
+      <c r="N25" s="14"/>
     </row>
     <row r="26" spans="1:14">
       <c r="C26" s="4">
         <v>25</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>847</v>
-      </c>
-      <c r="E26" s="10" t="s">
+      <c r="D26" s="6" t="s">
+        <v>880</v>
+      </c>
+      <c r="E26" s="9" t="s">
         <v>238</v>
       </c>
       <c r="F26" s="4" t="s">
@@ -5218,42 +5205,42 @@
       <c r="G26" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
-      <c r="N26" s="15"/>
+      <c r="N26" s="14"/>
     </row>
     <row r="27" spans="1:14">
       <c r="C27" s="4">
         <v>26</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>881</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>882</v>
+      <c r="D27" s="6" t="s">
+        <v>877</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>878</v>
       </c>
       <c r="F27" s="4">
         <v>2</v>
       </c>
       <c r="G27" s="4"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
-      <c r="N27" s="15"/>
+      <c r="N27" s="14"/>
     </row>
     <row r="28" spans="1:14" ht="15">
       <c r="C28" s="4">
         <v>27</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -5264,78 +5251,78 @@
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
-      <c r="N28" s="15"/>
+      <c r="N28" s="14"/>
     </row>
     <row r="29" spans="1:14">
       <c r="C29" s="4">
         <v>28</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>881</v>
-      </c>
-      <c r="E29" s="10" t="s">
+      <c r="D29" s="6" t="s">
         <v>877</v>
       </c>
+      <c r="E29" s="9" t="s">
+        <v>873</v>
+      </c>
       <c r="F29" s="4">
         <v>5</v>
       </c>
       <c r="G29" s="4"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
-      <c r="N29" s="15"/>
+      <c r="N29" s="14"/>
     </row>
     <row r="30" spans="1:14" ht="15">
       <c r="C30" s="4">
         <v>29</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>870</v>
-      </c>
-      <c r="E30" s="10"/>
+        <v>866</v>
+      </c>
+      <c r="E30" s="9"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
-      <c r="H30" s="10"/>
+      <c r="H30" s="9"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
-      <c r="N30" s="15"/>
+      <c r="N30" s="14"/>
     </row>
     <row r="31" spans="1:14">
       <c r="C31" s="4">
         <v>30</v>
       </c>
-      <c r="D31" s="7" t="s">
-        <v>846</v>
-      </c>
-      <c r="E31" s="10" t="s">
+      <c r="D31" s="6" t="s">
+        <v>842</v>
+      </c>
+      <c r="E31" s="9" t="s">
         <v>811</v>
       </c>
       <c r="F31" s="4">
         <v>2</v>
       </c>
       <c r="G31" s="4"/>
-      <c r="H31" s="10"/>
+      <c r="H31" s="9"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
-      <c r="N31" s="15"/>
+      <c r="N31" s="14"/>
     </row>
     <row r="32" spans="1:14">
       <c r="C32" s="4">
         <v>31</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>847</v>
-      </c>
-      <c r="E32" s="10" t="s">
+      <c r="D32" s="6" t="s">
+        <v>843</v>
+      </c>
+      <c r="E32" s="9" t="s">
         <v>19</v>
       </c>
       <c r="F32" s="4" t="s">
@@ -5344,22 +5331,22 @@
       <c r="G32" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
-      <c r="N32" s="15"/>
+      <c r="N32" s="14"/>
     </row>
     <row r="33" spans="3:14">
       <c r="C33" s="4">
         <v>32</v>
       </c>
-      <c r="D33" s="7" t="s">
-        <v>847</v>
-      </c>
-      <c r="E33" s="10" t="s">
+      <c r="D33" s="6" t="s">
+        <v>843</v>
+      </c>
+      <c r="E33" s="9" t="s">
         <v>19</v>
       </c>
       <c r="F33" s="4" t="s">
@@ -5368,23 +5355,23 @@
       <c r="G33" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
-      <c r="N33" s="15"/>
+      <c r="N33" s="14"/>
     </row>
     <row r="34" spans="3:14">
       <c r="C34" s="4">
         <v>33</v>
       </c>
-      <c r="D34" s="7" t="s">
-        <v>869</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>871</v>
+      <c r="D34" s="6" t="s">
+        <v>865</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>867</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>633</v>
@@ -5393,24 +5380,24 @@
         <v>3</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
-      <c r="N34" s="15"/>
+      <c r="N34" s="14"/>
     </row>
     <row r="35" spans="3:14" ht="14.25">
       <c r="C35" s="4">
         <v>34</v>
       </c>
-      <c r="D35" s="7" t="s">
-        <v>869</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>871</v>
+      <c r="D35" s="6" t="s">
+        <v>865</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>867</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>215</v>
@@ -5418,20 +5405,20 @@
       <c r="G35" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H35" s="16"/>
+      <c r="H35" s="15"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
-      <c r="N35" s="15"/>
+      <c r="N35" s="14"/>
     </row>
     <row r="36" spans="3:14">
       <c r="C36" s="4">
         <v>35</v>
       </c>
-      <c r="D36" s="7" t="s">
-        <v>869</v>
+      <c r="D36" s="6" t="s">
+        <v>865</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>640</v>
@@ -5442,23 +5429,23 @@
       <c r="G36" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H36" s="10"/>
+      <c r="H36" s="9"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
-      <c r="N36" s="15"/>
+      <c r="N36" s="14"/>
     </row>
     <row r="37" spans="3:14">
       <c r="C37" s="4">
         <v>36</v>
       </c>
-      <c r="D37" s="7" t="s">
-        <v>869</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>871</v>
+      <c r="D37" s="6" t="s">
+        <v>865</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>867</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>100</v>
@@ -5466,65 +5453,17 @@
       <c r="G37" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
-      <c r="N37" s="15"/>
-    </row>
-    <row r="38" spans="3:14">
-      <c r="C38" s="4">
-        <v>37</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>834</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>843</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="6"/>
-    </row>
-    <row r="39" spans="3:14">
-      <c r="C39" s="4">
-        <v>38</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>834</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>844</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>845</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="6"/>
+      <c r="N37" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N39">
+  <conditionalFormatting sqref="N2:N37">
     <cfRule type="cellIs" dxfId="1" priority="9" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -5533,16 +5472,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G15 G35:G39 G17:G33">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G15 G17:G33 G35:G37">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D32:D33 D8 D3:D4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D32:D33 D3:D4 D8">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E37">
       <formula1>Forms</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F37">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
   </dataValidations>

--- a/NformTester/NformTester/keywordscripts/TST551_CopyDataOfAGraph.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST551_CopyDataOfAGraph.xlsx
@@ -3884,13 +3884,6 @@
     <t>SingleManual</t>
   </si>
   <si>
-    <t>10.146.88.10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ABC GXT UPS"</t>
-  </si>
-  <si>
     <t>"Description for GXT"</t>
   </si>
   <si>
@@ -3961,6 +3954,12 @@
   <si>
     <t>;</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMPdevice_0$</t>
+  </si>
+  <si>
+    <t>$GXT_0$</t>
   </si>
 </sst>
 </file>
@@ -4482,8 +4481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="E19" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4640,7 +4639,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -4664,7 +4663,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -4725,19 +4724,19 @@
         <v>859</v>
       </c>
       <c r="I8" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>880</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>860</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="L8" s="4" t="s">
         <v>861</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="M8" s="4" t="s">
         <v>862</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>863</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>864</v>
       </c>
       <c r="N8" s="14"/>
     </row>
@@ -4752,7 +4751,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -4840,7 +4839,7 @@
         <v>56</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>861</v>
+        <v>880</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -4914,7 +4913,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>630</v>
@@ -4942,10 +4941,10 @@
         <v>15</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F16" s="4">
         <v>2</v>
@@ -5054,7 +5053,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -5115,7 +5114,7 @@
         <v>2</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>861</v>
+        <v>880</v>
       </c>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
@@ -5152,7 +5151,7 @@
         <v>23</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="4"/>
@@ -5194,7 +5193,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>238</v>
@@ -5218,10 +5217,10 @@
         <v>26</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="F27" s="4">
         <v>2</v>
@@ -5240,7 +5239,7 @@
         <v>27</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -5258,10 +5257,10 @@
         <v>28</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F29" s="4">
         <v>5</v>
@@ -5280,7 +5279,7 @@
         <v>29</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="4"/>
@@ -5368,10 +5367,10 @@
         <v>33</v>
       </c>
       <c r="D34" s="6" t="s">
+        <v>863</v>
+      </c>
+      <c r="E34" s="9" t="s">
         <v>865</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>867</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>633</v>
@@ -5380,7 +5379,7 @@
         <v>3</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
@@ -5394,10 +5393,10 @@
         <v>34</v>
       </c>
       <c r="D35" s="6" t="s">
+        <v>863</v>
+      </c>
+      <c r="E35" s="9" t="s">
         <v>865</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>867</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>215</v>
@@ -5418,7 +5417,7 @@
         <v>35</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>640</v>
@@ -5442,10 +5441,10 @@
         <v>36</v>
       </c>
       <c r="D37" s="6" t="s">
+        <v>863</v>
+      </c>
+      <c r="E37" s="9" t="s">
         <v>865</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>867</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>100</v>

--- a/NformTester/NformTester/keywordscripts/TST551_CopyDataOfAGraph.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST551_CopyDataOfAGraph.xlsx
@@ -3847,10 +3847,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Pass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Version</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -3956,10 +3952,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMPdevice_0$</t>
-  </si>
-  <si>
-    <t>$GXT_0$</t>
+    <t>Running Range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_device_0$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_GXT_0_NAME$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4481,7 +4483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E19" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
@@ -4494,6 +4496,7 @@
     <col min="7" max="7" width="14.875" customWidth="1"/>
     <col min="8" max="8" width="14.75" customWidth="1"/>
     <col min="9" max="9" width="14.375" customWidth="1"/>
+    <col min="10" max="10" width="23.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -4600,16 +4603,16 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>851</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>852</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>18</v>
@@ -4630,7 +4633,7 @@
     </row>
     <row r="5" spans="1:14" ht="15">
       <c r="A5" s="2" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B5" s="8">
         <v>41141</v>
@@ -4639,7 +4642,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -4654,16 +4657,16 @@
     </row>
     <row r="6" spans="1:14" ht="15">
       <c r="A6" s="2" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B6" s="8">
-        <v>41142</v>
+        <v>41451</v>
       </c>
       <c r="C6" s="4">
         <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -4687,7 +4690,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="4"/>
@@ -4702,16 +4705,14 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="4">
+        <v>7</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>857</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>850</v>
-      </c>
-      <c r="C8" s="4">
-        <v>7</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>858</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>632</v>
@@ -4721,7 +4722,7 @@
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>879</v>
@@ -4730,28 +4731,26 @@
         <v>880</v>
       </c>
       <c r="K8" s="4" t="s">
+        <v>859</v>
+      </c>
+      <c r="L8" s="4" t="s">
         <v>860</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="M8" s="4" t="s">
         <v>861</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>862</v>
       </c>
       <c r="N8" s="14"/>
     </row>
     <row r="9" spans="1:14" ht="15">
       <c r="A9" s="2" t="s">
-        <v>829</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>830</v>
-      </c>
+        <v>856</v>
+      </c>
+      <c r="B9" s="3"/>
       <c r="C9" s="4">
         <v>8</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -4765,8 +4764,12 @@
       <c r="N9" s="14"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
+      <c r="A10" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>830</v>
+      </c>
       <c r="C10" s="4">
         <v>9</v>
       </c>
@@ -4791,10 +4794,8 @@
       <c r="N10" s="14"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="2" t="s">
-        <v>831</v>
-      </c>
-      <c r="B11" s="13"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="4">
         <v>10</v>
       </c>
@@ -4820,7 +4821,7 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="2" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="4">
@@ -4850,7 +4851,7 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="2" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="4">
@@ -4878,7 +4879,7 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="2" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="4">
@@ -4906,14 +4907,14 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="2" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B15" s="13"/>
       <c r="C15" s="4">
         <v>14</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>630</v>
@@ -4934,17 +4935,17 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B16" s="13"/>
       <c r="C16" s="4">
         <v>15</v>
       </c>
       <c r="D16" s="6" t="s">
+        <v>869</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>870</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>871</v>
       </c>
       <c r="F16" s="4">
         <v>2</v>
@@ -4959,10 +4960,10 @@
       <c r="N16" s="14"/>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="2"/>
-      <c r="B17" s="13" t="s">
-        <v>837</v>
-      </c>
+      <c r="A17" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="B17" s="13"/>
       <c r="C17" s="4">
         <v>16</v>
       </c>
@@ -4989,7 +4990,7 @@
     <row r="18" spans="1:14">
       <c r="A18" s="2"/>
       <c r="B18" s="13" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C18" s="4">
         <v>17</v>
@@ -5015,11 +5016,9 @@
       <c r="N18" s="14"/>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="2" t="s">
-        <v>839</v>
-      </c>
+      <c r="A19" s="2"/>
       <c r="B19" s="13" t="s">
-        <v>830</v>
+        <v>838</v>
       </c>
       <c r="C19" s="4">
         <v>18</v>
@@ -5046,14 +5045,16 @@
     </row>
     <row r="20" spans="1:14" ht="15">
       <c r="A20" s="2" t="s">
-        <v>840</v>
-      </c>
-      <c r="B20" s="13"/>
+        <v>839</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>830</v>
+      </c>
       <c r="C20" s="4">
         <v>19</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -5068,7 +5069,7 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B21" s="13"/>
       <c r="C21" s="4">
@@ -5095,6 +5096,10 @@
       <c r="N21" s="14"/>
     </row>
     <row r="22" spans="1:14">
+      <c r="A22" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="B22" s="13"/>
       <c r="C22" s="4">
         <v>21</v>
       </c>
@@ -5151,7 +5156,7 @@
         <v>23</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="4"/>
@@ -5193,7 +5198,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>238</v>
@@ -5217,10 +5222,10 @@
         <v>26</v>
       </c>
       <c r="D27" s="6" t="s">
+        <v>874</v>
+      </c>
+      <c r="E27" s="9" t="s">
         <v>875</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>876</v>
       </c>
       <c r="F27" s="4">
         <v>2</v>
@@ -5239,7 +5244,7 @@
         <v>27</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -5257,10 +5262,10 @@
         <v>28</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="F29" s="4">
         <v>5</v>
@@ -5279,7 +5284,7 @@
         <v>29</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="4"/>
@@ -5367,10 +5372,10 @@
         <v>33</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>633</v>
@@ -5379,7 +5384,7 @@
         <v>3</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
@@ -5393,10 +5398,10 @@
         <v>34</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>215</v>
@@ -5417,7 +5422,7 @@
         <v>35</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>640</v>
@@ -5441,10 +5446,10 @@
         <v>36</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>100</v>
